--- a/spalone_kalorie.xlsx
+++ b/spalone_kalorie.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b2e8918caed3689e/Desktop/IV sem/IG2/infa_repoz/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/96f8ae571570bc38/Pulpit/lokal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_F25DC773A252ABDACC1048FA211E4DE65BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC477C3F-4330-4F6A-BB50-F7B4A8163AD6}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_F25DC773A252ABDACC1048FA211E4DE65BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D263598-AA31-44FE-8EB4-14B557AA572A}"/>
   <bookViews>
-    <workbookView xWindow="9180" yWindow="468" windowWidth="13020" windowHeight="11556" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -348,15 +348,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -364,6 +364,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
